--- a/Dados/R2_OS_normal.xlsx
+++ b/Dados/R2_OS_normal.xlsx
@@ -8,72 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Datathon_2023\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C4A262-64F6-464F-901C-C3C05B8752C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F63DAB-2B90-473F-A1F5-9942A843D62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="750" windowWidth="19185" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19185" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Total</t>
+    <t>V1</t>
   </si>
   <si>
-    <t>Greed</t>
+    <t>V2</t>
   </si>
   <si>
-    <t>Neutral</t>
+    <t>V3</t>
   </si>
   <si>
-    <t>Fear</t>
-  </si>
-  <si>
-    <t>MA(1,9)</t>
-  </si>
-  <si>
-    <t>MA(1,12)</t>
-  </si>
-  <si>
-    <t>MA(2,9)</t>
-  </si>
-  <si>
-    <t>MA(2,12)</t>
-  </si>
-  <si>
-    <t>MA(3,9)</t>
-  </si>
-  <si>
-    <t>MA(3,12)</t>
-  </si>
-  <si>
-    <t>MOM(9)</t>
-  </si>
-  <si>
-    <t>MOM(12)</t>
-  </si>
-  <si>
-    <t>VOL(1,9)</t>
-  </si>
-  <si>
-    <t>VOL(1,12)</t>
-  </si>
-  <si>
-    <t>VOL(2,9)</t>
-  </si>
-  <si>
-    <t>VOL(2,12)</t>
-  </si>
-  <si>
-    <t>VOL(3,9)</t>
-  </si>
-  <si>
-    <t>VOL(3,12)</t>
+    <t>V4</t>
   </si>
 </sst>
 </file>
@@ -83,15 +41,10 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -103,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -111,30 +64,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -443,261 +378,261 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="B2:E15"/>
+      <selection activeCell="B2" sqref="B2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.10375394212058001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.40840236109369998</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.27018577448242997</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.15699687956109001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-2.1807225434069002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-3.1493392003081002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-2.1012376605829002</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.70679149697382004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.69845412966139997</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.80238195369252996</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.28853740159480001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.4945676245977999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.10375394212058001</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.40840236109369998</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-0.65879935732056005</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.4078102626661</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B5" s="1">
+        <v>-0.29827560412907</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.91662078828392002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.30623830149122999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.7068001169389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>-2.1807225434069002</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-3.1493392003081002</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-2.4392985019050002</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2.0274652325422999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B6" s="1">
+        <v>-9.5031023206026993E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-1.6135199207298001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.48642304988419999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.1729593224249002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.69845412966139997</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.80238195369252996</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.2869431468995999E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2.4057710928799998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="1">
+        <v>2.4945172691431998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.3977564549215</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.9792857864564999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.9210884329994999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
-        <v>-0.29827560412907</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-0.91662078828392002</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-0.60244713519320003</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.8212710209127998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B8" s="1">
+        <v>1.2882640321629999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-8.0361219241976006E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.1741307122014999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.48161994998307001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
-        <v>-9.5031023206026993E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-1.6135199207298001</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.1114055038494</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4.5971087770555004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B9" s="1">
+        <v>-0.28749870012320999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-1.7504746947690999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.39034843816879</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.5368644683195001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
-        <v>2.4945172691431998</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.3977564549215</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.6198185448228002</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2.8439019920690001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B10" s="1">
+        <v>-2.7045314127326998</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-3.2086904045294999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-2.9846873905111999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-0.31570648748011998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
-        <v>1.2882640321629999</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-8.0361219241976006E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.5808866598292002</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.0718008273783002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B11" s="1">
+        <v>-2.9238883653397001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-3.2675621810075999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-3.9174005489348001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.91571600351004001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
-        <v>-0.28749870012320999</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-1.7504746947690999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3.1575708380482001E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3.8588834881343002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B12" s="1">
+        <v>-6.0909964473542004</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-7.1409488088512996</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-6.8450281547684</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-0.64606978590129005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
-        <v>-2.7045314127326998</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-3.2086904045294999</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-3.3715711198489</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.1437152250381</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B13" s="1">
+        <v>-1.303843877964</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-0.95145001721722</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-2.3250089385854</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.37954592777413998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
-        <v>-2.9238883653397001</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-3.2675621810075999</v>
-      </c>
-      <c r="D11" s="2">
-        <v>-4.1176431375081997</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.0005696779285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B14" s="1">
+        <v>-0.41723187687482999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-1.7883509300489</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.68750692955714998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.93633292806785995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
-        <v>-6.0909964473542004</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-7.1409488088512996</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-6.8072338673052002</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-0.17201882980767999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2">
-        <v>-1.303843877964</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-0.95145001721722</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-2.3480205355069002</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.70936554768176996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2">
-        <v>-0.41723187687482999</v>
-      </c>
-      <c r="C14" s="2">
-        <v>-1.7883509300489</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.55403204789317995</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1.3756891478664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>0.36526367860351999</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>-0.50742531740935004</v>
       </c>
-      <c r="D15" s="2">
-        <v>0.89566679957039996</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1.779763456665</v>
+      <c r="D15" s="1">
+        <v>1.1272184637152001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.0647392407169001</v>
       </c>
     </row>
   </sheetData>

--- a/Dados/R2_OS_normal.xlsx
+++ b/Dados/R2_OS_normal.xlsx
@@ -8,30 +8,72 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Datathon_2023\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F63DAB-2B90-473F-A1F5-9942A843D62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E57B23-170E-433B-87D8-06B72B690720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19185" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="999999"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>V3</t>
-  </si>
-  <si>
-    <t>V4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>MA(1,9)</t>
+  </si>
+  <si>
+    <t>MA(1,12)</t>
+  </si>
+  <si>
+    <t>MA(2,9)</t>
+  </si>
+  <si>
+    <t>MA(2,12)</t>
+  </si>
+  <si>
+    <t>MA(3,9)</t>
+  </si>
+  <si>
+    <t>MA(3,12)</t>
+  </si>
+  <si>
+    <t>MOM(9)</t>
+  </si>
+  <si>
+    <t>MOM(12)</t>
+  </si>
+  <si>
+    <t>VOL(1,9)</t>
+  </si>
+  <si>
+    <t>VOL(1,12)</t>
+  </si>
+  <si>
+    <t>VOL(2,9)</t>
+  </si>
+  <si>
+    <t>VOL(2,12)</t>
+  </si>
+  <si>
+    <t>VOL(3,9)</t>
+  </si>
+  <si>
+    <t>VOL(3,12)</t>
+  </si>
+  <si>
+    <t>Greed</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -39,12 +81,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -56,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -64,13 +111,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,31 +440,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0.10375394212058001</v>
@@ -414,9 +479,9 @@
         <v>0.15699687956109001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>-2.1807225434069002</v>
@@ -431,9 +496,9 @@
         <v>0.70679149697382004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.69845412966139997</v>
@@ -448,9 +513,9 @@
         <v>1.4945676245977999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>-0.29827560412907</v>
@@ -465,9 +530,9 @@
         <v>1.7068001169389</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>-9.5031023206026993E-2</v>
@@ -482,9 +547,9 @@
         <v>3.1729593224249002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>2.4945172691431998</v>
@@ -499,9 +564,9 @@
         <v>1.9210884329994999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1.2882640321629999</v>
@@ -515,10 +580,14 @@
       <c r="E8" s="1">
         <v>0.48161994998307001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>-0.28749870012320999</v>
@@ -532,10 +601,14 @@
       <c r="E9" s="1">
         <v>2.5368644683195001</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>-2.7045314127326998</v>
@@ -549,10 +622,14 @@
       <c r="E10" s="1">
         <v>-0.31570648748011998</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>-2.9238883653397001</v>
@@ -566,10 +643,14 @@
       <c r="E11" s="1">
         <v>0.91571600351004001</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>-6.0909964473542004</v>
@@ -583,10 +664,14 @@
       <c r="E12" s="1">
         <v>-0.64606978590129005</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>-1.303843877964</v>
@@ -600,10 +685,14 @@
       <c r="E13" s="1">
         <v>0.37954592777413998</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>-0.41723187687482999</v>
@@ -617,10 +706,14 @@
       <c r="E14" s="1">
         <v>0.93633292806785995</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.36526367860351999</v>
@@ -634,6 +727,46 @@
       <c r="E15" s="1">
         <v>1.0647392407169001</v>
       </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
